--- a/Writing/22-23/week1/content.xlsx
+++ b/Writing/22-23/week1/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashkarle/soccer-ds-stats/Writing/22-23/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A5487-240D-104F-BAB9-565416308A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C331200-8FB0-6742-9C5D-A1FDB5532394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" activeTab="7" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Comms" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="243">
   <si>
     <t>Key stats</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>OptaPro Analytics Forum</t>
+  </si>
+  <si>
+    <t>Going paid!!!</t>
   </si>
 </sst>
 </file>
@@ -1222,6 +1225,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112708</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A301C9-A748-734A-B6CD-4D5CBDC4ADDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797249" y="1449916"/>
+          <a:ext cx="8999959" cy="4370917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1519,15 +1571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5068ED-902C-3546-B15E-0748BE44D916}">
-  <dimension ref="B4:F20"/>
+  <dimension ref="B4:K19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -1543,43 +1595,47 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:11">
       <c r="F6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:11">
       <c r="B9" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="16" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="16" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3757,7 +3813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6674-CFF2-5841-B4C6-F22E6892C162}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/Writing/22-23/week1/content.xlsx
+++ b/Writing/22-23/week1/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashkarle/soccer-ds-stats/Writing/22-23/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C331200-8FB0-6742-9C5D-A1FDB5532394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B6F757-AB4D-F649-AC67-D551A6D2CA5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" activeTab="7" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Comms" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="247">
   <si>
     <t>Key stats</t>
   </si>
@@ -912,6 +912,98 @@
   <si>
     <t>Going paid!!!</t>
   </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>strive to improve the methodology of data analysis within the club through CPD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>work closely with the Technical Scout to produce statistical models that track player progress and highlight potential targets for players.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>preparing data reports to support decision-making throughout the scouting and recruitment process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>improving the efficiency of the recruitment process</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -922,7 +1014,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1020,6 +1112,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1062,7 +1166,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1205,6 +1309,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1263,6 +1370,110 @@
         <a:xfrm>
           <a:off x="6797249" y="1449916"/>
           <a:ext cx="8999959" cy="4370917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533823</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://ci3.googleusercontent.com/proxy/6siw_5X58PEvl5_12NEIk2w-IyEe3cj3RCAiEqzt0mhGMOXvhga-LE-d0l8m4nYx4awEfVLqtfGttjqibCthKYGYHWJqxrEVb0YNs8WCYXElu0b5y6ABiEy8u5SnSoR4Bw_TJ0O_qeOojqFz9oXB25XzvPVdZheRVczTIPAviDZFvOMjd8MtwZi9u7q1cjo0DtAyB8sRGMKxpnzxhYmJZGbxn34I0pzEkHzvvS3_7HAr82IqaesSJCak___Hm5PxVCEJj6RuBMSAB6Wzit48Ufddyc0k0dIjFWoZ04ccfet5cGUVB4yOqJfza2hnG8EOsbULyGvbKrNsxIvNyL7tnn-kTA=s0-d-e1-ft#https://substackcdn.com/image/fetch/w_2912,c_limit,f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fbucketeer-e05bbc84-baa3-437e-9518-adb32be77984.s3.amazonaws.com%2Fpublic%2Fimages%2Fefd63627-87dd-4123-8382-b538d5cf0892_3204x2172.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BA47B6-AF42-3240-B2E3-F2EE8C8BC327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2614083" y="3810000"/>
+          <a:ext cx="3698240" cy="2506980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201908</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>173565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4721BFC7-4EB3-A148-BA01-59AA41796E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1852908" y="5714999"/>
+          <a:ext cx="4973342" cy="1496483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5068ED-902C-3546-B15E-0748BE44D916}">
   <dimension ref="B4:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3813,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6674-CFF2-5841-B4C6-F22E6892C162}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3924,25 +4135,39 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:6">
       <c r="B17" s="1"/>
       <c r="C17" s="26" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="F17" s="72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1"/>
       <c r="C18" s="26" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="F18" s="72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="1"/>
       <c r="C19" s="26" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="F19" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="F20" s="72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +4175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -3958,12 +4183,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:6">
       <c r="C23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:6">
       <c r="C24" t="s">
         <v>241</v>
       </c>

--- a/Writing/22-23/week1/content.xlsx
+++ b/Writing/22-23/week1/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashkarle/soccer-ds-stats/Writing/22-23/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B6F757-AB4D-F649-AC67-D551A6D2CA5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E439E1-1751-7D4A-AA90-649B8A2B91F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" activeTab="7" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Comms" sheetId="11" r:id="rId1"/>
@@ -1482,6 +1482,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19069CC0-3768-E744-8EBB-4CEC932A31F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482416" y="5700388"/>
+          <a:ext cx="3661834" cy="3221362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1784,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5068ED-902C-3546-B15E-0748BE44D916}">
   <dimension ref="B4:K19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -4024,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6674-CFF2-5841-B4C6-F22E6892C162}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/Writing/22-23/week1/content.xlsx
+++ b/Writing/22-23/week1/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashkarle/soccer-ds-stats/Writing/22-23/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E439E1-1751-7D4A-AA90-649B8A2B91F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC6EA31-0D40-D146-8982-80C23C96F028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" activeTab="6" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Comms" sheetId="11" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="2 Self-learning" sheetId="5" r:id="rId4"/>
     <sheet name="3 Community updates" sheetId="3" r:id="rId5"/>
     <sheet name="4 Working hours" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="Notes" sheetId="10" r:id="rId7"/>
+    <sheet name="Ideas" sheetId="10" r:id="rId7"/>
     <sheet name="Getting Involved" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AA">'2 Self-learning'!$XBR$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="255">
   <si>
     <t>Key stats</t>
   </si>
@@ -1003,6 +1004,30 @@
       </rPr>
       <t>improving the efficiency of the recruitment process</t>
     </r>
+  </si>
+  <si>
+    <t>Chelsea - Performance Analyst 1st team goalkeeping</t>
+  </si>
+  <si>
+    <t>To build and maintain good working relationships with the goalkeeper coaches, loans and the academy to align analysis, work flows and encourage collaborations.</t>
+  </si>
+  <si>
+    <t>Detailed video and data analysis of Chelsea goalkeepers, supporting pre-match opponent scouting, in-game analysis, post-match review work as well as required analysis of training.</t>
+  </si>
+  <si>
+    <t>Work closely with analysts in the department to provide support towards schedules, work flows and any other duties / requirements (e.g. match days, coding, ad-hoc analysis work, training analysis, filming training)</t>
+  </si>
+  <si>
+    <t>Level of proficiency with industry standard products; Sportscode, Match tracker, Focus, Hudl, telestration tools etc…</t>
+  </si>
+  <si>
+    <t>Ability to communicate effectively with coaches and analysts</t>
+  </si>
+  <si>
+    <t>Ability to interpret data that can be used to further the work undertaken (guided towards goalkeeping and development).</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1150,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,12 +1160,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1185,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1179,7 +1198,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1280,21 +1298,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1311,6 +1320,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1487,13 +1505,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>52916</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>70055</xdr:rowOff>
+      <xdr:rowOff>101804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:rowOff>105832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,8 +1534,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7482416" y="5700388"/>
+          <a:off x="7482416" y="5732137"/>
           <a:ext cx="3661834" cy="3221362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>560915</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>740832</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33187833-576C-1449-9475-7876034A41B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12943415" y="4034924"/>
+          <a:ext cx="2656417" cy="4082493"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5068ED-902C-3546-B15E-0748BE44D916}">
   <dimension ref="B4:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1869,7 +1931,7 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1884,7 +1946,7 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1904,742 +1966,742 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="30"/>
-    <col min="4" max="4" width="11.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="30"/>
-    <col min="9" max="9" width="10.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="30" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="30"/>
-    <col min="14" max="14" width="13.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="30"/>
+    <col min="1" max="3" width="10.83203125" style="29"/>
+    <col min="4" max="4" width="11.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="29"/>
+    <col min="9" max="9" width="10.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="29" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="29"/>
+    <col min="14" max="14" width="13.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="47"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="48"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="47"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="J7" s="31" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="J7" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="J8" s="33" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="J8" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="47"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="J9" s="33" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="J9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="J10" s="33" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="J10" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="47"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="50"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="49"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="50"/>
+      <c r="G12" s="69"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="49"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="59" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="50"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="59" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="50"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="59" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="69"/>
+      <c r="H15" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="47"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="J16" s="51"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="50"/>
+      <c r="A16" s="46"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="J16" s="50"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="47"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="J17" s="52"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="50"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="J17" s="51"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="50"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="53"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="52"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="53"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="52"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="57" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="32" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="34" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="34" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="34" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="58" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="39" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="41" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="41" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="58" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="43" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="43" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="43" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="43" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="58" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="29" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="K38" s="46"/>
-      <c r="L38" s="33" t="s">
+      <c r="K38" s="45"/>
+      <c r="L38" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="29" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33" t="s">
+      <c r="K39" s="32"/>
+      <c r="L39" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="33"/>
-      <c r="J40" s="29" t="s">
+      <c r="B40" s="32"/>
+      <c r="J40" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:19">
-      <c r="J41" s="29" t="s">
+      <c r="J41" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="2:19">
-      <c r="J42" s="29" t="s">
+      <c r="J42" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="29" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:19">
-      <c r="J43" s="29"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="2:19">
-      <c r="J44" s="29"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" spans="2:19">
-      <c r="J45" s="29"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="2:19">
-      <c r="J46" s="29"/>
+      <c r="J46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2692,7 +2754,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2708,9 +2770,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>225</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="J2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>49</v>
@@ -2726,7 +2789,7 @@
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>227</v>
       </c>
@@ -2736,104 +2799,106 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="14"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="1" t="s">
@@ -2841,32 +2906,44 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="G14" s="15"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="G15" s="15"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="G16" s="15"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="G17" s="15"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="G16" s="14"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2899,443 +2976,449 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="65" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="F8" s="9"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="65" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="F14" s="9"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="6:15">
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="6:15">
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="6:15">
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="6:15">
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="6:15">
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="6:15">
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="6:15">
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="6:15">
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="6:15">
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="6:15">
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="6:15">
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="6:15">
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="6:15">
-      <c r="F29" s="9"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" spans="6:15">
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
     </row>
     <row r="31" spans="6:15">
-      <c r="F31" s="9"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
     </row>
     <row r="32" spans="6:15">
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
     </row>
     <row r="33" spans="6:15">
-      <c r="F33" s="9"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" spans="6:15">
-      <c r="F35" s="9"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
     </row>
     <row r="36" spans="6:15">
-      <c r="F36" s="9"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
     </row>
     <row r="37" spans="6:15">
-      <c r="G37" s="12"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="6:15">
-      <c r="G38" s="12"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3347,7 +3430,7 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3356,30 +3439,30 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="J2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
@@ -3394,23 +3477,24 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="6"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="2"/>
+      <c r="F8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="L9" t="s">
         <v>143</v>
       </c>
@@ -3418,11 +3502,11 @@
     <row r="10" spans="2:12">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="L10" t="s">
         <v>142</v>
       </c>
@@ -3430,11 +3514,11 @@
     <row r="11" spans="2:12">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="L11" t="s">
         <v>144</v>
       </c>
@@ -3456,47 +3540,49 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="C17" t="s">
+    <row r="17" spans="2:5">
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5">
       <c r="D18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:5">
       <c r="D19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:5">
       <c r="D20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:5">
       <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:5">
       <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:5">
       <c r="C27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:5">
       <c r="C29" t="s">
         <v>233</v>
       </c>
@@ -3608,7 +3694,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="70" t="s">
         <v>30</v>
       </c>
       <c r="I9" t="s">
@@ -3619,59 +3705,59 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3701,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6476FE99-38C7-4044-A99D-0C60D07A6712}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3718,7 +3804,7 @@
     <col min="14" max="14" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3726,142 +3812,153 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:13">
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="9" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="62" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="9" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="H5" s="8"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="9" t="s">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="9"/>
-      <c r="J10" s="7" t="s">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="H10" s="8"/>
+      <c r="J10" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="J11" s="2">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="8">
         <v>2</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="J13" s="2">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" s="8">
         <v>3</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="2" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="8">
         <v>4</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="6"/>
@@ -3881,178 +3978,178 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>2</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4066,10 +4163,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6674-CFF2-5841-B4C6-F22E6892C162}">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4079,38 +4176,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="C1" s="10"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
@@ -4127,22 +4224,22 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="25"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="1" t="s">
@@ -4160,58 +4257,55 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="1"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="1"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7">
       <c r="B17" s="1"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="68" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="B18" s="1"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="68" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="1"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="68" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="F20" s="72" t="s">
+    <row r="20" spans="2:7">
+      <c r="F20" s="68" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -4219,7 +4313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -4227,14 +4321,47 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7">
       <c r="C23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="C24" t="s">
         <v>241</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="G25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="G26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="G27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="G28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="G29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="G30" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
